--- a/output/fit_clients/fit_round_189.xlsx
+++ b/output/fit_clients/fit_round_189.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1771346921.510026</v>
+        <v>1744627814.625552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08657420190653721</v>
+        <v>0.09012406799075026</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02827126085945408</v>
+        <v>0.03290324761182169</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>885673425.6131959</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2377240738.563124</v>
+        <v>2109411747.483927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1445104971794312</v>
+        <v>0.1418467879158893</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03625277881227435</v>
+        <v>0.05000107156099898</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1188620467.73789</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3776796223.003479</v>
+        <v>3593789151.651492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1438369419377595</v>
+        <v>0.1272570622612149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03026349793685706</v>
+        <v>0.03323527418090474</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1888398109.852906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3430522305.222956</v>
+        <v>3047057127.361683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08547167544004859</v>
+        <v>0.0669762864772407</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03582830507543949</v>
+        <v>0.04083292755689932</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1715261193.928482</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2173208218.078483</v>
+        <v>1747129619.318976</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1106961089553085</v>
+        <v>0.1024512064772053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04769192972451122</v>
+        <v>0.03797095411845487</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1086604119.864994</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2398643537.08293</v>
+        <v>2803950397.688753</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0775855094029972</v>
+        <v>0.0809033492920089</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04800932663282848</v>
+        <v>0.03306211342603533</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>59</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1199321791.307735</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3848302876.841109</v>
+        <v>3574494126.160364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1750285852046014</v>
+        <v>0.1978944353340555</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02608962459890217</v>
+        <v>0.02502821330963453</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1924151582.625602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1765076736.389492</v>
+        <v>2046841667.810824</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156248426674555</v>
+        <v>0.188462024439256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03316322660002189</v>
+        <v>0.03274216156395079</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>882538427.3853719</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4544800347.996083</v>
+        <v>5261551200.013104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986413924439429</v>
+        <v>0.1974737416121758</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03383451112685199</v>
+        <v>0.03908334767017227</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>79</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2272400238.044312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4135092345.395178</v>
+        <v>3815125133.464303</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1387763847678238</v>
+        <v>0.1620995246386985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03724122029329607</v>
+        <v>0.04224913741672449</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>78</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2067546194.748221</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2992959650.796834</v>
+        <v>3270303014.138194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1929330973377008</v>
+        <v>0.1363220600818962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04626954519680981</v>
+        <v>0.03980468971841487</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>67</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1496479842.756551</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5015534456.706309</v>
+        <v>3823594531.550504</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08105442423132432</v>
+        <v>0.06856471508820101</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02155289475748497</v>
+        <v>0.02053067829031359</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>63</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2507767231.677821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3628267627.078207</v>
+        <v>2662724767.529692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1806794071012901</v>
+        <v>0.162717453629969</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03056649654007991</v>
+        <v>0.03869904597116838</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1814133802.459014</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1519445882.383749</v>
+        <v>1771846640.955338</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08624010402345522</v>
+        <v>0.09603800859060094</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03493800188784586</v>
+        <v>0.0431923994285088</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>759723031.0821402</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2617664434.270388</v>
+        <v>2743247260.30223</v>
       </c>
       <c r="F16" t="n">
-        <v>0.103257190861936</v>
+        <v>0.08630665398026797</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04872961379603425</v>
+        <v>0.04038264451235586</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1308832237.41612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3238301296.627308</v>
+        <v>5051427656.055338</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1455417075279244</v>
+        <v>0.1313056066454175</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04819937203036821</v>
+        <v>0.04053020140396127</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>55</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1619150720.491494</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4015501139.620143</v>
+        <v>2434006931.757183</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1261706657395096</v>
+        <v>0.1823787071328151</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03406075884316782</v>
+        <v>0.02923957094483205</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>62</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2007750526.576511</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>907424599.3127757</v>
+        <v>910954137.4215791</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1506474399554129</v>
+        <v>0.1802899453726299</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0266717672143652</v>
+        <v>0.02068093183645422</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>453712306.3422033</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2553254983.196747</v>
+        <v>2399888514.149258</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1194842263370835</v>
+        <v>0.1495147503484538</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0286637668782531</v>
+        <v>0.02962480538664545</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1276627459.006374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2586401593.217484</v>
+        <v>2205524106.344544</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09786293705650076</v>
+        <v>0.08615508580642377</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03946225938451207</v>
+        <v>0.03741654252777916</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1293200776.458069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3161709588.565008</v>
+        <v>3084375310.677618</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1199454702496477</v>
+        <v>0.1287004210575338</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05175170113151122</v>
+        <v>0.0567611548553742</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1580854846.10239</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1051397421.960257</v>
+        <v>1249390099.45255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1122667715102141</v>
+        <v>0.144359177821379</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04134485020119462</v>
+        <v>0.04585476789256254</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>525698772.4831852</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3349986610.62227</v>
+        <v>4092418655.870902</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1500452595637848</v>
+        <v>0.1123668495398993</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03242920880817082</v>
+        <v>0.03525836652366403</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>56</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1674993316.996698</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1318845966.698705</v>
+        <v>1459042540.29352</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201713689884334</v>
+        <v>0.09879480689030323</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02983152957674384</v>
+        <v>0.03033305490700304</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>659422973.9460515</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1260051376.193495</v>
+        <v>997303728.6839604</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174035926100673</v>
+        <v>0.1150421123865082</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02505853481611383</v>
+        <v>0.02549126532123091</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>630025723.7914404</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3751773227.826288</v>
+        <v>3688670894.21135</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1126020947323999</v>
+        <v>0.1208757194274488</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01931616640745612</v>
+        <v>0.020450486650399</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1875886636.398876</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3701357882.461245</v>
+        <v>3595812865.769302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.116893367962206</v>
+        <v>0.1073913314769712</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04928847846475386</v>
+        <v>0.04227546405590762</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>60</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1850679013.298874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4625276051.204314</v>
+        <v>4843764970.495713</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1002494423932649</v>
+        <v>0.09764627507128726</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04444156306524626</v>
+        <v>0.02922756247354471</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>84</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2312637999.071436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2115882911.745987</v>
+        <v>2398449415.783935</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09117563711634206</v>
+        <v>0.09032447523520958</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03151697465184805</v>
+        <v>0.03412308453967862</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1057941506.482802</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>939023908.6568979</v>
+        <v>923858837.9896532</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07277762803258707</v>
+        <v>0.09614013668814593</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04285011200549625</v>
+        <v>0.0410852657936675</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>469511967.2024762</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1365033062.393898</v>
+        <v>1900067526.76835</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1070553516157007</v>
+        <v>0.09546825392354656</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03757902054780594</v>
+        <v>0.02559876607734889</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>682516571.5650185</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3121160426.562319</v>
+        <v>2357110938.762349</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1944165165186993</v>
+        <v>0.13443368578304</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0420694192645095</v>
+        <v>0.04230916401134687</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>57</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1560580198.549891</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1270883716.160391</v>
+        <v>1534964180.823004</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1093479211628678</v>
+        <v>0.1067006188613788</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02596751389081598</v>
+        <v>0.02028411214647498</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>635441851.4695179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1204674436.464602</v>
+        <v>835040762.2362738</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08425920383275341</v>
+        <v>0.115883616165921</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03404446564117734</v>
+        <v>0.03099475889406346</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>602337191.9137344</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3016817695.09342</v>
+        <v>2321790477.769305</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1379495021001201</v>
+        <v>0.1569248746319775</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02146722768776223</v>
+        <v>0.0182511577768434</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1508408828.101432</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2750447726.100393</v>
+        <v>1791248093.970108</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08968429819516799</v>
+        <v>0.1026141329007246</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02849345176143567</v>
+        <v>0.02606335134475293</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>52</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1375223993.571761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1565255202.968653</v>
+        <v>1931929845.645627</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08200067184310562</v>
+        <v>0.08150733129531136</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03083252678231114</v>
+        <v>0.02522073673687869</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>782627641.4977099</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1587751831.755895</v>
+        <v>2039329713.311106</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132885133139512</v>
+        <v>0.1564891947093862</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02991527004605375</v>
+        <v>0.02952029379857435</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>793875972.9964046</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1555115077.714061</v>
+        <v>1468708922.170668</v>
       </c>
       <c r="F40" t="n">
-        <v>0.155110192983103</v>
+        <v>0.1116448045909314</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05115724796380369</v>
+        <v>0.05213733782057958</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>777557491.2429955</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2107897594.097522</v>
+        <v>2491375139.071008</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1613131521443714</v>
+        <v>0.1092559221248424</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03356622332633887</v>
+        <v>0.03952497759773761</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1053948860.685748</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3705086014.56205</v>
+        <v>3248384265.328851</v>
       </c>
       <c r="F42" t="n">
-        <v>0.108202367878677</v>
+        <v>0.1093877173852168</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02844886084369959</v>
+        <v>0.04446593937990859</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>64</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1852543016.245865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2276376221.461293</v>
+        <v>2519638009.079522</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1767241142847896</v>
+        <v>0.1854888683670848</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02396398974746092</v>
+        <v>0.02473477282563826</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1138188181.834772</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1574832366.081795</v>
+        <v>2306094944.784379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000354447808925</v>
+        <v>0.06560148464974876</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02874942720424933</v>
+        <v>0.0248119308507615</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>787416204.5167361</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1585198007.076938</v>
+        <v>1649356572.576122</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1192354491329805</v>
+        <v>0.1173749558180446</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05618412948395864</v>
+        <v>0.03859748065849257</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>792598952.560612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4113943752.457943</v>
+        <v>5135154950.607787</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1703810973695185</v>
+        <v>0.1416036527090493</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03909765269555992</v>
+        <v>0.05519890843407276</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>67</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2056971852.253374</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3386769270.090709</v>
+        <v>3923705374.677329</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1733738264245961</v>
+        <v>0.1271235201134768</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03950423965961501</v>
+        <v>0.05931877302676698</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>50</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1693384599.416056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3656937578.261219</v>
+        <v>3081411312.361078</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07345004116250932</v>
+        <v>0.1021271669562073</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03435108965545899</v>
+        <v>0.03891488293068193</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1828468843.415619</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1828454508.823659</v>
+        <v>1439508728.366075</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1500800341583302</v>
+        <v>0.1299111065074827</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03494078648676461</v>
+        <v>0.03979156620911634</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>914227235.3529837</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3806614568.282931</v>
+        <v>3667841409.765106</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11121418124561</v>
+        <v>0.1191626751815328</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03903221924836953</v>
+        <v>0.04839431335019193</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>64</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1903307286.549691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1505748241.125369</v>
+        <v>1121353360.198597</v>
       </c>
       <c r="F51" t="n">
-        <v>0.138836745073303</v>
+        <v>0.1947730937027161</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05379755165765267</v>
+        <v>0.03764634290135331</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>752874122.5406291</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3647823780.948036</v>
+        <v>4539786583.821258</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1312884138077606</v>
+        <v>0.1190769663457999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05651245982455865</v>
+        <v>0.05059088206450913</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>78</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1823911967.654127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3677927184.696685</v>
+        <v>3410907835.013544</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1582132393957993</v>
+        <v>0.1339222549683688</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02833193724667308</v>
+        <v>0.02352440344023184</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>55</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1838963577.956023</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4547175185.899546</v>
+        <v>3246526945.526957</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1282838303472054</v>
+        <v>0.1234776351336474</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04826685336530116</v>
+        <v>0.04264604728007241</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2273587699.95284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4379070245.577126</v>
+        <v>4963500689.057964</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1633339304288212</v>
+        <v>0.1464952531052352</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0203186338731678</v>
+        <v>0.02380890352262549</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2189535114.383902</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1283507045.256947</v>
+        <v>1378693888.050447</v>
       </c>
       <c r="F56" t="n">
-        <v>0.11316677805883</v>
+        <v>0.1216010727329059</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04938905250108312</v>
+        <v>0.05539239967146553</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>641753596.9551885</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3191622871.035875</v>
+        <v>4328155090.14888</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1377340082752169</v>
+        <v>0.147741317992493</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02340847137784523</v>
+        <v>0.02567290273999548</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>60</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1595811455.98559</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1829675710.574619</v>
+        <v>1896818005.04529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1367653012701329</v>
+        <v>0.128698935345258</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02651240797758058</v>
+        <v>0.03234182261139257</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>914837856.3212323</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4449616198.085597</v>
+        <v>5387951450.723025</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08301002526174533</v>
+        <v>0.07977049528335391</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04718343028975817</v>
+        <v>0.04019473078565086</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2224808053.278722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3060324952.624047</v>
+        <v>2891544236.838462</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1867178865070906</v>
+        <v>0.130275445375675</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02595002773671382</v>
+        <v>0.03268704319505684</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1530162552.969035</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2335604520.807483</v>
+        <v>2848974359.059369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1249993606615632</v>
+        <v>0.1372192709504164</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0316481569820726</v>
+        <v>0.02001733131393535</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1167802303.500676</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1390187198.862175</v>
+        <v>1835754793.488359</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1641330630746306</v>
+        <v>0.1797459248674601</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03876270231115146</v>
+        <v>0.03647574397776747</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>695093565.98368</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3410889955.869894</v>
+        <v>4106995503.211514</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08809351117583518</v>
+        <v>0.08438706885580825</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03127197578286962</v>
+        <v>0.03771737233597602</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1705445066.588573</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3905552238.344932</v>
+        <v>5083375301.365814</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695563496207833</v>
+        <v>0.1265539712720518</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03303881323944351</v>
+        <v>0.03066626691097561</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>59</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1952776148.368903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3813807394.829217</v>
+        <v>5816626476.257682</v>
       </c>
       <c r="F65" t="n">
-        <v>0.11738571584306</v>
+        <v>0.1343099224942273</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02876007273533613</v>
+        <v>0.02359865338973708</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>68</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1906903727.06252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3817841068.862431</v>
+        <v>4105027356.101763</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1397992416880057</v>
+        <v>0.1231971667142846</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05013612210358021</v>
+        <v>0.03449301658884416</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>55</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1908920498.226346</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2181388545.49111</v>
+        <v>2585693159.134109</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06334532222418524</v>
+        <v>0.06335153573878594</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03280064855963528</v>
+        <v>0.03158089414359297</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>61</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1090694360.312401</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4771216811.28896</v>
+        <v>5124626281.721525</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1018762029656179</v>
+        <v>0.1541673447873356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04895975129007651</v>
+        <v>0.04737403858770696</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2385608448.141147</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1520147809.159328</v>
+        <v>1743251458.135224</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1698363959286196</v>
+        <v>0.1580583267259071</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0405638185752759</v>
+        <v>0.04589557918993788</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>760073847.5001042</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3365709866.422574</v>
+        <v>3067737624.127674</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08417516087845997</v>
+        <v>0.0708942595173734</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04167530770906413</v>
+        <v>0.0319558494717318</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>54</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1682854933.941643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3814895804.005975</v>
+        <v>3469150436.421504</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1496877456646808</v>
+        <v>0.1533642060074227</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02416118463046796</v>
+        <v>0.03007700785010082</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>69</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1907447919.208589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1592268972.720801</v>
+        <v>1519227856.178219</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08160062150971903</v>
+        <v>0.07972903492438199</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04399267370834483</v>
+        <v>0.04108652768752048</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>796134498.4532274</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2533654635.428764</v>
+        <v>3552029925.667326</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08389280353999544</v>
+        <v>0.1080236950176565</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03844383253391283</v>
+        <v>0.05186921762475279</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>72</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1266827356.382995</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2677905745.888727</v>
+        <v>3644163180.991214</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1848624399524518</v>
+        <v>0.1349228830936676</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03092650671481938</v>
+        <v>0.03146221284993138</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>65</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1338952966.160721</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2364752306.048476</v>
+        <v>1843775445.400983</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1233614977076913</v>
+        <v>0.1657934417219176</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02922388373397015</v>
+        <v>0.03668634689984882</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1182376082.938952</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4023197996.338915</v>
+        <v>3433199613.697675</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09595927497939305</v>
+        <v>0.09475264980892162</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02780391220025652</v>
+        <v>0.02856616505816724</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2011598983.860998</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1740015053.878315</v>
+        <v>1857055924.952204</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1625280651553148</v>
+        <v>0.1338084565007223</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02763117158331307</v>
+        <v>0.01972633516871403</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>870007550.011109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4344758646.313382</v>
+        <v>4691652655.934704</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1141546052171439</v>
+        <v>0.1048211173529645</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05114674128895695</v>
+        <v>0.04670857904117681</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>65</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2172379264.208782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1419204835.878021</v>
+        <v>1809494984.226618</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1482236011892719</v>
+        <v>0.1353863152699792</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03993430477390044</v>
+        <v>0.03169525158267508</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>709602438.0112251</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4311290973.375509</v>
+        <v>3787916044.760151</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07825053150513174</v>
+        <v>0.0760833641624393</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03730814569850262</v>
+        <v>0.02383321216465371</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>39</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2155645501.616234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3418473144.893433</v>
+        <v>4756230637.855911</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1014846070736201</v>
+        <v>0.1246805321196826</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02955139813901471</v>
+        <v>0.02274820302917047</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1709236514.06021</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4323374903.622899</v>
+        <v>5189571965.525323</v>
       </c>
       <c r="F82" t="n">
-        <v>0.204160244461414</v>
+        <v>0.2143307010705842</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02249154618030992</v>
+        <v>0.02121586721537293</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2161687473.49556</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2270274853.356409</v>
+        <v>2409229634.571217</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1112305238494746</v>
+        <v>0.1400225902378764</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03657651851829029</v>
+        <v>0.03553202462574879</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1135137445.561654</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1964927004.993028</v>
+        <v>2581255484.660041</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09944619700244847</v>
+        <v>0.09971759733437584</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04014317070597236</v>
+        <v>0.03419274529697752</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>982463512.66071</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3429315382.584198</v>
+        <v>2703260547.163496</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1569035696578797</v>
+        <v>0.1787419263435741</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05509563083047602</v>
+        <v>0.05487749756217554</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>71</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1714657798.816665</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2529564280.554496</v>
+        <v>2595338052.572968</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1245949722139018</v>
+        <v>0.107649133637377</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02372692132944849</v>
+        <v>0.02089220958747591</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1264782241.520097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1065862099.128717</v>
+        <v>1232296044.976284</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1293954451769987</v>
+        <v>0.1227232614311323</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04264762732056385</v>
+        <v>0.04199283929383656</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>532931070.7507007</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3558901228.151518</v>
+        <v>2420429524.304265</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1300580430982766</v>
+        <v>0.1575917692051988</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03477955512976463</v>
+        <v>0.02976079498864163</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1779450699.728126</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2473447884.189336</v>
+        <v>2849493968.411148</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1284837279882688</v>
+        <v>0.1279998154162413</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03079517784881231</v>
+        <v>0.03724568704966159</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>64</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1236724018.780884</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1960524698.572405</v>
+        <v>1438097077.716988</v>
       </c>
       <c r="F90" t="n">
-        <v>0.138211515968534</v>
+        <v>0.08620830606794848</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05528880018610775</v>
+        <v>0.03551548730994729</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>980262412.2857199</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1878057473.540515</v>
+        <v>1303364101.317295</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1631726304954272</v>
+        <v>0.1563756893855274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.052758454679742</v>
+        <v>0.05255239416495112</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>939028725.2511222</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2747620757.102676</v>
+        <v>1857836304.447255</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08093971709690224</v>
+        <v>0.08949158206054267</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02913176147504526</v>
+        <v>0.04424249228257322</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1373810381.167764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3317702246.227688</v>
+        <v>3035930091.976911</v>
       </c>
       <c r="F93" t="n">
-        <v>0.105277570614813</v>
+        <v>0.1039095965933656</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0541600191040296</v>
+        <v>0.03350377689968679</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1658851167.834575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1599326804.379494</v>
+        <v>2060478937.800004</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1314825526563374</v>
+        <v>0.1097267865547295</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03806370079248984</v>
+        <v>0.03040013153520171</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>799663348.3346548</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2847105184.103777</v>
+        <v>3011252707.380678</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1360506531085125</v>
+        <v>0.08991388006638057</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04993373868050637</v>
+        <v>0.05291270040915896</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>44</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1423552602.902156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1955872703.982682</v>
+        <v>1905977179.374906</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1164880270830106</v>
+        <v>0.1410939501538405</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03640109418780933</v>
+        <v>0.03689413775569291</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>977936343.6530741</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4402641695.965427</v>
+        <v>3274117078.224113</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1159103323974894</v>
+        <v>0.1212841370003872</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02726008590113435</v>
+        <v>0.02020713931642529</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>62</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2201320936.71805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3804820193.407151</v>
+        <v>2751393605.683064</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065397152143611</v>
+        <v>0.08070598190345533</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02844671813355782</v>
+        <v>0.02808490500804882</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>50</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1902410135.974489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2628486661.446831</v>
+        <v>2121700298.756553</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466701772647531</v>
+        <v>0.1166369906458047</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02577419260727953</v>
+        <v>0.02936181085937247</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>59</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1314243289.774459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4183308054.451077</v>
+        <v>4636489909.15756</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1672737719744699</v>
+        <v>0.1769297308818613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02560845221545431</v>
+        <v>0.02542583185336024</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>57</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2091654112.4997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2338320284.441004</v>
+        <v>3314965648.009288</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1766212246914131</v>
+        <v>0.1990779467804973</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04419218594292854</v>
+        <v>0.04536195774432527</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>76</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1169160143.852901</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_189.xlsx
+++ b/output/fit_clients/fit_round_189.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1744627814.625552</v>
+        <v>2039846302.742256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09012406799075026</v>
+        <v>0.1021269688910664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03290324761182169</v>
+        <v>0.02960522613438449</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2109411747.483927</v>
+        <v>1826573015.763961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1418467879158893</v>
+        <v>0.1133281921688167</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05000107156099898</v>
+        <v>0.03907243481992795</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3593789151.651492</v>
+        <v>3302804633.341252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1272570622612149</v>
+        <v>0.1289346056676183</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03323527418090474</v>
+        <v>0.0276233238759566</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3047057127.361683</v>
+        <v>3854741023.371702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0669762864772407</v>
+        <v>0.08636043611517001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04083292755689932</v>
+        <v>0.04744615716161933</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1747129619.318976</v>
+        <v>2680739920.338642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1024512064772053</v>
+        <v>0.1241440451563196</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03797095411845487</v>
+        <v>0.05622718376834013</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2803950397.688753</v>
+        <v>2316545577.995515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0809033492920089</v>
+        <v>0.08167833474837112</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03306211342603533</v>
+        <v>0.03522885011374184</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3574494126.160364</v>
+        <v>3692078298.003078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1978944353340555</v>
+        <v>0.1876210572166637</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02502821330963453</v>
+        <v>0.0274218513654592</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2046841667.810824</v>
+        <v>1622712420.426345</v>
       </c>
       <c r="F9" t="n">
-        <v>0.188462024439256</v>
+        <v>0.1710241890946014</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03274216156395079</v>
+        <v>0.03103076237622946</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5261551200.013104</v>
+        <v>4830497312.23325</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1974737416121758</v>
+        <v>0.1812149084796776</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03908334767017227</v>
+        <v>0.05357971074779742</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3815125133.464303</v>
+        <v>4282813008.245175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1620995246386985</v>
+        <v>0.1912167507314161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04224913741672449</v>
+        <v>0.03708927998808591</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3270303014.138194</v>
+        <v>2058068854.41626</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1363220600818962</v>
+        <v>0.1984293408278711</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03980468971841487</v>
+        <v>0.03259251836681638</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3823594531.550504</v>
+        <v>4109771929.07692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06856471508820101</v>
+        <v>0.1019339635193201</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02053067829031359</v>
+        <v>0.02014295151382544</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2662724767.529692</v>
+        <v>2380419617.50161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.162717453629969</v>
+        <v>0.1810515568018941</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03869904597116838</v>
+        <v>0.02674494860145973</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1771846640.955338</v>
+        <v>1614686597.150342</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09603800859060094</v>
+        <v>0.09988656933222097</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0431923994285088</v>
+        <v>0.04633563678107753</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2743247260.30223</v>
+        <v>2537773321.342227</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08630665398026797</v>
+        <v>0.09726906619933495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04038264451235586</v>
+        <v>0.04298614629258079</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5051427656.055338</v>
+        <v>4046584702.728093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1313056066454175</v>
+        <v>0.1603209820527724</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04053020140396127</v>
+        <v>0.03736628098147855</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2434006931.757183</v>
+        <v>2615986699.707736</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1823787071328151</v>
+        <v>0.1289120886823265</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02923957094483205</v>
+        <v>0.02464642937756945</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>910954137.4215791</v>
+        <v>1352391952.056543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1802899453726299</v>
+        <v>0.1524502582142564</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02068093183645422</v>
+        <v>0.02500493754889204</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2399888514.149258</v>
+        <v>2154328355.633105</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1495147503484538</v>
+        <v>0.1615265640038469</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02962480538664545</v>
+        <v>0.02161049779103976</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2205524106.344544</v>
+        <v>2559991445.249375</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08615508580642377</v>
+        <v>0.08672703879968739</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03741654252777916</v>
+        <v>0.04440342191845034</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3084375310.677618</v>
+        <v>3552038810.214124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1287004210575338</v>
+        <v>0.1408748647573749</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0567611548553742</v>
+        <v>0.04804263576110617</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1249390099.45255</v>
+        <v>1085574028.340147</v>
       </c>
       <c r="F23" t="n">
-        <v>0.144359177821379</v>
+        <v>0.1137448466656466</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04585476789256254</v>
+        <v>0.05273830429765862</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4092418655.870902</v>
+        <v>3017995116.474872</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1123668495398993</v>
+        <v>0.120699647009522</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03525836652366403</v>
+        <v>0.02359331336462745</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459042540.29352</v>
+        <v>1127791993.918372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09879480689030323</v>
+        <v>0.09289317618987543</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03033305490700304</v>
+        <v>0.02749005953624162</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>997303728.6839604</v>
+        <v>1195660893.415851</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1150421123865082</v>
+        <v>0.08198299552362302</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02549126532123091</v>
+        <v>0.03361211125017616</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3688670894.21135</v>
+        <v>4462651934.424633</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1208757194274488</v>
+        <v>0.1036631921748476</v>
       </c>
       <c r="G27" t="n">
-        <v>0.020450486650399</v>
+        <v>0.01792083485733433</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3595812865.769302</v>
+        <v>2401206665.215026</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1073913314769712</v>
+        <v>0.1038763927650335</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04227546405590762</v>
+        <v>0.04631872856535191</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4843764970.495713</v>
+        <v>4650032531.109648</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09764627507128726</v>
+        <v>0.09277799279511736</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02922756247354471</v>
+        <v>0.03376899408196395</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2398449415.783935</v>
+        <v>2161595630.274163</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09032447523520958</v>
+        <v>0.1254658337142883</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03412308453967862</v>
+        <v>0.03042904108362828</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>923858837.9896532</v>
+        <v>1163094541.438513</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09614013668814593</v>
+        <v>0.07155755213010932</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0410852657936675</v>
+        <v>0.04350861431489842</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1900067526.76835</v>
+        <v>1355274486.926982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09546825392354656</v>
+        <v>0.1115841308789008</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02559876607734889</v>
+        <v>0.03680739911944982</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2357110938.762349</v>
+        <v>2493114540.312238</v>
       </c>
       <c r="F33" t="n">
-        <v>0.13443368578304</v>
+        <v>0.1702104331613129</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04230916401134687</v>
+        <v>0.05241878869333768</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1534964180.823004</v>
+        <v>1147683074.728981</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1067006188613788</v>
+        <v>0.09674158137659157</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02028411214647498</v>
+        <v>0.01795073772384563</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>835040762.2362738</v>
+        <v>1086355310.233624</v>
       </c>
       <c r="F35" t="n">
-        <v>0.115883616165921</v>
+        <v>0.08575357840213794</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03099475889406346</v>
+        <v>0.03271694132613603</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2321790477.769305</v>
+        <v>2629853361.110748</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1569248746319775</v>
+        <v>0.1453694468320237</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0182511577768434</v>
+        <v>0.02001972116837345</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1791248093.970108</v>
+        <v>2215975575.768452</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026141329007246</v>
+        <v>0.1100993401924627</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02606335134475293</v>
+        <v>0.03545905251943431</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1931929845.645627</v>
+        <v>1890270413.570993</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08150733129531136</v>
+        <v>0.1073406820074671</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02522073673687869</v>
+        <v>0.03020348140087832</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2039329713.311106</v>
+        <v>1542797409.661276</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1564891947093862</v>
+        <v>0.1545140510896974</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02952029379857435</v>
+        <v>0.02182185692653186</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1468708922.170668</v>
+        <v>1187813605.977746</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1116448045909314</v>
+        <v>0.1137813448807561</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05213733782057958</v>
+        <v>0.04866788735156898</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2491375139.071008</v>
+        <v>2504924378.449645</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1092559221248424</v>
+        <v>0.1307764318319103</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03952497759773761</v>
+        <v>0.02850711115587838</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3248384265.328851</v>
+        <v>4304869596.684512</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093877173852168</v>
+        <v>0.0926874708780492</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04446593937990859</v>
+        <v>0.03296563866165039</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2519638009.079522</v>
+        <v>2894852365.500372</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1854888683670848</v>
+        <v>0.1412173783744279</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02473477282563826</v>
+        <v>0.02579120365815589</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2306094944.784379</v>
+        <v>1485118742.534412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06560148464974876</v>
+        <v>0.06444666730515117</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0248119308507615</v>
+        <v>0.03148450853300157</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1649356572.576122</v>
+        <v>1651426025.30078</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1173749558180446</v>
+        <v>0.1921154287922201</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03859748065849257</v>
+        <v>0.05349216722959853</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5135154950.607787</v>
+        <v>3746993080.989494</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1416036527090493</v>
+        <v>0.1600714434335035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05519890843407276</v>
+        <v>0.04181081940906579</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3923705374.677329</v>
+        <v>5056155337.638722</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1271235201134768</v>
+        <v>0.1649746220109935</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05931877302676698</v>
+        <v>0.04522274101187889</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3081411312.361078</v>
+        <v>3606102806.079552</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1021271669562073</v>
+        <v>0.09179659998572566</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03891488293068193</v>
+        <v>0.02441018563445624</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1439508728.366075</v>
+        <v>1362777422.649568</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1299111065074827</v>
+        <v>0.1603839117339517</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03979156620911634</v>
+        <v>0.02848704412686974</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3667841409.765106</v>
+        <v>3437504470.182997</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1191626751815328</v>
+        <v>0.1104544010510048</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04839431335019193</v>
+        <v>0.04145976874260383</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1121353360.198597</v>
+        <v>1466193992.756075</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1947730937027161</v>
+        <v>0.1749449055188635</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03764634290135331</v>
+        <v>0.03592524034978294</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4539786583.821258</v>
+        <v>4798755655.334974</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190769663457999</v>
+        <v>0.132875946637639</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05059088206450913</v>
+        <v>0.04761945571753766</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3410907835.013544</v>
+        <v>3686760005.25928</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1339222549683688</v>
+        <v>0.1490386746846964</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02352440344023184</v>
+        <v>0.02278057489649964</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3246526945.526957</v>
+        <v>3507002123.422314</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1234776351336474</v>
+        <v>0.1106267060348375</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04264604728007241</v>
+        <v>0.04863440844719444</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4963500689.057964</v>
+        <v>4668115975.636863</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1464952531052352</v>
+        <v>0.1577578243977772</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02380890352262549</v>
+        <v>0.02853723405684935</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1378693888.050447</v>
+        <v>1864070247.744472</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1216010727329059</v>
+        <v>0.1202774730245438</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05539239967146553</v>
+        <v>0.04987848567983684</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4328155090.14888</v>
+        <v>3468612734.552043</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147741317992493</v>
+        <v>0.1727363609736787</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02567290273999548</v>
+        <v>0.01693800274753302</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1896818005.04529</v>
+        <v>1911064426.495179</v>
       </c>
       <c r="F58" t="n">
-        <v>0.128698935345258</v>
+        <v>0.1492941005167877</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03234182261139257</v>
+        <v>0.02929730890082336</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5387951450.723025</v>
+        <v>5211333046.77482</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07977049528335391</v>
+        <v>0.1288388641856222</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04019473078565086</v>
+        <v>0.03257263034691645</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2891544236.838462</v>
+        <v>3470422859.903404</v>
       </c>
       <c r="F60" t="n">
-        <v>0.130275445375675</v>
+        <v>0.1723841964626802</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03268704319505684</v>
+        <v>0.0321908864345194</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2848974359.059369</v>
+        <v>3059240278.878849</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1372192709504164</v>
+        <v>0.1197350504072293</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02001733131393535</v>
+        <v>0.02412253725959387</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1835754793.488359</v>
+        <v>1503111936.149465</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1797459248674601</v>
+        <v>0.1381569228061333</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03647574397776747</v>
+        <v>0.03414817508943484</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4106995503.211514</v>
+        <v>3680318891.747808</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08438706885580825</v>
+        <v>0.09458731396188987</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03771737233597602</v>
+        <v>0.04740836028346893</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5083375301.365814</v>
+        <v>4268898959.289037</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1265539712720518</v>
+        <v>0.1590059465550454</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03066626691097561</v>
+        <v>0.02182840332972708</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5816626476.257682</v>
+        <v>5575464245.834664</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1343099224942273</v>
+        <v>0.1597267978656541</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02359865338973708</v>
+        <v>0.02181301774888598</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4105027356.101763</v>
+        <v>4204993326.754854</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1231971667142846</v>
+        <v>0.1566651097710015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03449301658884416</v>
+        <v>0.03240246966402715</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2585693159.134109</v>
+        <v>3246772542.510722</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06335153573878594</v>
+        <v>0.08695652145077337</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03158089414359297</v>
+        <v>0.03665913778853472</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5124626281.721525</v>
+        <v>5303155652.85812</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1541673447873356</v>
+        <v>0.1114353306466966</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04737403858770696</v>
+        <v>0.0490339410391613</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1743251458.135224</v>
+        <v>1749048251.43303</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1580583267259071</v>
+        <v>0.1676841688707866</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04589557918993788</v>
+        <v>0.05131729712926642</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3067737624.127674</v>
+        <v>2856152654.215546</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0708942595173734</v>
+        <v>0.08223217766933817</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0319558494717318</v>
+        <v>0.04425011925341329</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3469150436.421504</v>
+        <v>3913507484.386561</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1533642060074227</v>
+        <v>0.1724848501748598</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03007700785010082</v>
+        <v>0.02679201542578855</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1519227856.178219</v>
+        <v>1454510812.466659</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07972903492438199</v>
+        <v>0.07698411484771875</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04108652768752048</v>
+        <v>0.04924600150796456</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3552029925.667326</v>
+        <v>3032615946.770442</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1080236950176565</v>
+        <v>0.09752975800603995</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05186921762475279</v>
+        <v>0.04094713868383464</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3644163180.991214</v>
+        <v>3412872395.566174</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1349228830936676</v>
+        <v>0.1405642431561859</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03146221284993138</v>
+        <v>0.0324864982342962</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1843775445.400983</v>
+        <v>1660597843.210835</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1657934417219176</v>
+        <v>0.1494336894637616</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03668634689984882</v>
+        <v>0.02637103686462158</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3433199613.697675</v>
+        <v>4045305510.595121</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09475264980892162</v>
+        <v>0.08159591592304213</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02856616505816724</v>
+        <v>0.02124018568618197</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1857055924.952204</v>
+        <v>1482664435.400797</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1338084565007223</v>
+        <v>0.1441087077005987</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01972633516871403</v>
+        <v>0.02024642420800819</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4691652655.934704</v>
+        <v>4380443671.845364</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1048211173529645</v>
+        <v>0.1158146373292085</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04670857904117681</v>
+        <v>0.04643328734166907</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1809494984.226618</v>
+        <v>1682144668.536041</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1353863152699792</v>
+        <v>0.1557019190520912</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03169525158267508</v>
+        <v>0.03491972373606936</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3787916044.760151</v>
+        <v>4583100748.952565</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0760833641624393</v>
+        <v>0.08177470142959856</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02383321216465371</v>
+        <v>0.03425915906144845</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4756230637.855911</v>
+        <v>4247497284.242949</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1246805321196826</v>
+        <v>0.1027415143418218</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02274820302917047</v>
+        <v>0.03206445801106904</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5189571965.525323</v>
+        <v>4654420966.32387</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2143307010705842</v>
+        <v>0.202343496347565</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02121586721537293</v>
+        <v>0.02860603483878579</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2409229634.571217</v>
+        <v>2291162596.158965</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1400225902378764</v>
+        <v>0.09886444178601397</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03553202462574879</v>
+        <v>0.03932239025088468</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2581255484.660041</v>
+        <v>2358732483.965338</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09971759733437584</v>
+        <v>0.07794083648838229</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03419274529697752</v>
+        <v>0.04782346307234351</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2703260547.163496</v>
+        <v>3288609510.065992</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1787419263435741</v>
+        <v>0.1388646845667134</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05487749756217554</v>
+        <v>0.04045896805734896</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2595338052.572968</v>
+        <v>2001671995.892548</v>
       </c>
       <c r="F86" t="n">
-        <v>0.107649133637377</v>
+        <v>0.168509061030253</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02089220958747591</v>
+        <v>0.01959946065998902</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1232296044.976284</v>
+        <v>1490731171.817036</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1227232614311323</v>
+        <v>0.1868732989739128</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04199283929383656</v>
+        <v>0.0340492549027395</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2420429524.304265</v>
+        <v>3043113890.194874</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1575917692051988</v>
+        <v>0.1608521666406857</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02976079498864163</v>
+        <v>0.02502621832515117</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2849493968.411148</v>
+        <v>3058324333.238733</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1279998154162413</v>
+        <v>0.1033904011031423</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03724568704966159</v>
+        <v>0.03883602655427454</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1438097077.716988</v>
+        <v>1494245861.613794</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08620830606794848</v>
+        <v>0.09334683025414277</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03551548730994729</v>
+        <v>0.03570369976631514</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1303364101.317295</v>
+        <v>1756693278.359868</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1563756893855274</v>
+        <v>0.1462325948962959</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05255239416495112</v>
+        <v>0.05883944433402102</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1857836304.447255</v>
+        <v>2608871050.880219</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08949158206054267</v>
+        <v>0.08482843638064319</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04424249228257322</v>
+        <v>0.03435453013277244</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3035930091.976911</v>
+        <v>4133795900.304179</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1039095965933656</v>
+        <v>0.1422886270101313</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03350377689968679</v>
+        <v>0.03415359966208482</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2060478937.800004</v>
+        <v>2155782444.366856</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1097267865547295</v>
+        <v>0.1288191531206592</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03040013153520171</v>
+        <v>0.03351445154646195</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3011252707.380678</v>
+        <v>2973568002.552616</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08991388006638057</v>
+        <v>0.1065278301523295</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05291270040915896</v>
+        <v>0.03873875092034198</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1905977179.374906</v>
+        <v>2075327798.677307</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1410939501538405</v>
+        <v>0.1223033287186485</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03689413775569291</v>
+        <v>0.04166875265823303</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3274117078.224113</v>
+        <v>3290064685.37378</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1212841370003872</v>
+        <v>0.1352395737841163</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02020713931642529</v>
+        <v>0.01948428683322046</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2751393605.683064</v>
+        <v>3850432577.468554</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08070598190345533</v>
+        <v>0.1136252378017238</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02808490500804882</v>
+        <v>0.02962253802525763</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2121700298.756553</v>
+        <v>2825910860.630661</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1166369906458047</v>
+        <v>0.1323797900078166</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02936181085937247</v>
+        <v>0.03270261349429604</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4636489909.15756</v>
+        <v>4223939921.206898</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1769297308818613</v>
+        <v>0.1633806087865227</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02542583185336024</v>
+        <v>0.02371280055512498</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3314965648.009288</v>
+        <v>3192386335.298837</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1990779467804973</v>
+        <v>0.1726252069294904</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04536195774432527</v>
+        <v>0.04966554190186231</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_189.xlsx
+++ b/output/fit_clients/fit_round_189.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2039846302.742256</v>
+        <v>2238801746.844891</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1021269688910664</v>
+        <v>0.08400580962024955</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02960522613438449</v>
+        <v>0.03659979261656108</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1826573015.763961</v>
+        <v>1853032332.409448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133281921688167</v>
+        <v>0.1309071262382787</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03907243481992795</v>
+        <v>0.04495246617721563</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3302804633.341252</v>
+        <v>3523102915.765052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1289346056676183</v>
+        <v>0.1464149575420769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0276233238759566</v>
+        <v>0.03007162527586773</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>104</v>
+      </c>
+      <c r="J4" t="n">
+        <v>189</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3854741023.371702</v>
+        <v>3079113754.110499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08636043611517001</v>
+        <v>0.07468472445080819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04744615716161933</v>
+        <v>0.0371949613374012</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78</v>
+      </c>
+      <c r="J5" t="n">
+        <v>188</v>
+      </c>
+      <c r="K5" t="n">
+        <v>87.0475350609323</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2680739920.338642</v>
+        <v>2246261685.436527</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1241440451563196</v>
+        <v>0.1052918326914641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05622718376834013</v>
+        <v>0.05582006101184503</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2316545577.995515</v>
+        <v>2704866536.175588</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08167833474837112</v>
+        <v>0.0885977560277984</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03522885011374184</v>
+        <v>0.04332443340642434</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3692078298.003078</v>
+        <v>2678054920.427763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1876210572166637</v>
+        <v>0.2052892178604545</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0274218513654592</v>
+        <v>0.03100958991286446</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>187</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1622712420.426345</v>
+        <v>2196834710.804077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1710241890946014</v>
+        <v>0.1355986898969189</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03103076237622946</v>
+        <v>0.03191350476244598</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4830497312.23325</v>
+        <v>3608205708.654558</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1812149084796776</v>
+        <v>0.1777652205130021</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05357971074779742</v>
+        <v>0.03843424720939998</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>173</v>
+      </c>
+      <c r="J10" t="n">
+        <v>188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>114.8327957963065</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4282813008.245175</v>
+        <v>3610493934.508796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1912167507314161</v>
+        <v>0.1466900520746096</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03708927998808591</v>
+        <v>0.04574034755831698</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>78</v>
+      </c>
+      <c r="J11" t="n">
+        <v>188</v>
+      </c>
+      <c r="K11" t="n">
+        <v>112.7359577467345</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2058068854.41626</v>
+        <v>3104830162.88964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1984293408278711</v>
+        <v>0.1921092135518411</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03259251836681638</v>
+        <v>0.05310245166279332</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4109771929.07692</v>
+        <v>3924182046.868363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1019339635193201</v>
+        <v>0.06371078606789055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02014295151382544</v>
+        <v>0.02186139568870308</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>94</v>
+      </c>
+      <c r="J13" t="n">
+        <v>189</v>
+      </c>
+      <c r="K13" t="n">
+        <v>122.7654739368247</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2380419617.50161</v>
+        <v>3664510109.268034</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1810515568018941</v>
+        <v>0.1694864510596598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02674494860145973</v>
+        <v>0.03125209721851528</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>189</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1614686597.150342</v>
+        <v>1821670129.719457</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09988656933222097</v>
+        <v>0.0736445606041452</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04633563678107753</v>
+        <v>0.04242983689567188</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2537773321.342227</v>
+        <v>2321884548.282406</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09726906619933495</v>
+        <v>0.1093095574573127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04298614629258079</v>
+        <v>0.04922832615627837</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4046584702.728093</v>
+        <v>4209551218.943959</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1603209820527724</v>
+        <v>0.159252829257001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03736628098147855</v>
+        <v>0.047834526884094</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>91</v>
+      </c>
+      <c r="J17" t="n">
+        <v>188</v>
+      </c>
+      <c r="K17" t="n">
+        <v>114.0822984206234</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2615986699.707736</v>
+        <v>3177148241.089149</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1289120886823265</v>
+        <v>0.1756463014452631</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02464642937756945</v>
+        <v>0.03350495824513949</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1352391952.056543</v>
+        <v>922485238.666924</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1524502582142564</v>
+        <v>0.1413480259116584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02500493754889204</v>
+        <v>0.01732978708664588</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2154328355.633105</v>
+        <v>2006830863.170824</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1615265640038469</v>
+        <v>0.09763065915138465</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02161049779103976</v>
+        <v>0.02266020816498958</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2559991445.249375</v>
+        <v>1825726838.707649</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08672703879968739</v>
+        <v>0.1006181331119135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04440342191845034</v>
+        <v>0.03335173265200013</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3552038810.214124</v>
+        <v>2697931807.781485</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1408748647573749</v>
+        <v>0.1328422372345768</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04804263576110617</v>
+        <v>0.0398753497046296</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>187</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1085574028.340147</v>
+        <v>1108637937.558824</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1137448466656466</v>
+        <v>0.1223216771313745</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05273830429765862</v>
+        <v>0.03721262651673509</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3017995116.474872</v>
+        <v>3547801587.838384</v>
       </c>
       <c r="F24" t="n">
-        <v>0.120699647009522</v>
+        <v>0.1210807919948993</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02359331336462745</v>
+        <v>0.03504988438623699</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>59</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1127791993.918372</v>
+        <v>922221452.8294505</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09289317618987543</v>
+        <v>0.07882289650725262</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02749005953624162</v>
+        <v>0.02498966580500155</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1195660893.415851</v>
+        <v>1389888589.592795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08198299552362302</v>
+        <v>0.09619281101320423</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03361211125017616</v>
+        <v>0.03162103958887773</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4462651934.424633</v>
+        <v>3187475161.963933</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1036631921748476</v>
+        <v>0.1070961746645479</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01792083485733433</v>
+        <v>0.02292301858340376</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>187</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2401206665.215026</v>
+        <v>2540830354.354734</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1038763927650335</v>
+        <v>0.1201981865386987</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04631872856535191</v>
+        <v>0.047785192681692</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4650032531.109648</v>
+        <v>4415207438.465576</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09277799279511736</v>
+        <v>0.1216803745483296</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03376899408196395</v>
+        <v>0.02865415295416154</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>178</v>
+      </c>
+      <c r="J29" t="n">
+        <v>189</v>
+      </c>
+      <c r="K29" t="n">
+        <v>140.8768061081111</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2161595630.274163</v>
+        <v>2314425299.539576</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1254658337142883</v>
+        <v>0.1270571543699865</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03042904108362828</v>
+        <v>0.03139287609046633</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1163094541.438513</v>
+        <v>996241470.2189151</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07155755213010932</v>
+        <v>0.08124924010785027</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04350861431489842</v>
+        <v>0.03377702584724075</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1355274486.926982</v>
+        <v>1343463053.806529</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1115841308789008</v>
+        <v>0.09749194762153689</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03680739911944982</v>
+        <v>0.03747547558564512</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2493114540.312238</v>
+        <v>2646219854.680548</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1702104331613129</v>
+        <v>0.1412437675363174</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05241878869333768</v>
+        <v>0.05207932090776757</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1147683074.728981</v>
+        <v>1379620756.711599</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09674158137659157</v>
+        <v>0.07430650832807473</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01795073772384563</v>
+        <v>0.02745365131829303</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1086355310.233624</v>
+        <v>981495939.2611458</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08575357840213794</v>
+        <v>0.08571875600782516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03271694132613603</v>
+        <v>0.04428233168761806</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2629853361.110748</v>
+        <v>2178414410.050575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1453694468320237</v>
+        <v>0.1809123225067547</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02001972116837345</v>
+        <v>0.0206899869927855</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2215975575.768452</v>
+        <v>2526007829.894724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1100993401924627</v>
+        <v>0.1110398254122848</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03545905251943431</v>
+        <v>0.04044301446383466</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1890270413.570993</v>
+        <v>1619913760.14264</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1073406820074671</v>
+        <v>0.09598263134474469</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03020348140087832</v>
+        <v>0.03917084554795149</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1542797409.661276</v>
+        <v>1707641411.42807</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1545140510896974</v>
+        <v>0.1715847772980574</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02182185692653186</v>
+        <v>0.02166531548522757</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1187813605.977746</v>
+        <v>1132382074.55241</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1137813448807561</v>
+        <v>0.1047172509509353</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04866788735156898</v>
+        <v>0.05525305041986759</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2504924378.449645</v>
+        <v>2133702355.422367</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1307764318319103</v>
+        <v>0.1183686266782105</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02850711115587838</v>
+        <v>0.03657791082974182</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4304869596.684512</v>
+        <v>3500793808.135116</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0926874708780492</v>
+        <v>0.08040129072881895</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03296563866165039</v>
+        <v>0.0390873634545638</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>72</v>
+      </c>
+      <c r="J42" t="n">
+        <v>188</v>
+      </c>
+      <c r="K42" t="n">
+        <v>100.4354924251796</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2894852365.500372</v>
+        <v>2997594851.353731</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1412173783744279</v>
+        <v>0.1948346664515944</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02579120365815589</v>
+        <v>0.01833501520818895</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1485118742.534412</v>
+        <v>1543906426.41427</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06444666730515117</v>
+        <v>0.1024223905107285</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03148450853300157</v>
+        <v>0.02469133295962499</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1651426025.30078</v>
+        <v>2343315362.606899</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1921154287922201</v>
+        <v>0.1195562059788999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05349216722959853</v>
+        <v>0.0457837816427545</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3746993080.989494</v>
+        <v>5415678743.979713</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1600714434335035</v>
+        <v>0.1287438457331938</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04181081940906579</v>
+        <v>0.043426938421403</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>107</v>
+      </c>
+      <c r="J46" t="n">
+        <v>189</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5056155337.638722</v>
+        <v>3808996512.024738</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1649746220109935</v>
+        <v>0.142482716560094</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04522274101187889</v>
+        <v>0.0488411215978134</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>84</v>
+      </c>
+      <c r="J47" t="n">
+        <v>188</v>
+      </c>
+      <c r="K47" t="n">
+        <v>95.30464264781182</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3606102806.079552</v>
+        <v>3993725079.837613</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09179659998572566</v>
+        <v>0.08936512796784143</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02441018563445624</v>
+        <v>0.03167444207666714</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>89</v>
+      </c>
+      <c r="J48" t="n">
+        <v>189</v>
+      </c>
+      <c r="K48" t="n">
+        <v>127.5763471719552</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1362777422.649568</v>
+        <v>1519317128.427814</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1603839117339517</v>
+        <v>0.1366691730856923</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02848704412686974</v>
+        <v>0.03783799052938814</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3437504470.182997</v>
+        <v>3724135064.336161</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1104544010510048</v>
+        <v>0.1648247459736039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04145976874260383</v>
+        <v>0.04224284405370788</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>60</v>
+      </c>
+      <c r="J50" t="n">
+        <v>188</v>
+      </c>
+      <c r="K50" t="n">
+        <v>112.7376483080366</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1466193992.756075</v>
+        <v>933946369.1914313</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1749449055188635</v>
+        <v>0.1602625525353601</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03592524034978294</v>
+        <v>0.05399027696245076</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4798755655.334974</v>
+        <v>4956314451.617634</v>
       </c>
       <c r="F52" t="n">
-        <v>0.132875946637639</v>
+        <v>0.08530089631429409</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04761945571753766</v>
+        <v>0.04274274817586938</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>132</v>
+      </c>
+      <c r="J52" t="n">
+        <v>189</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3686760005.25928</v>
+        <v>3259386285.279783</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1490386746846964</v>
+        <v>0.1855119755359245</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02278057489649964</v>
+        <v>0.02878515540438106</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3507002123.422314</v>
+        <v>4202395677.043883</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1106267060348375</v>
+        <v>0.1043465161855633</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04863440844719444</v>
+        <v>0.04429412293047094</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>95</v>
+      </c>
+      <c r="J54" t="n">
+        <v>189</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4668115975.636863</v>
+        <v>3350854425.938627</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1577578243977772</v>
+        <v>0.1833840178267699</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02853723405684935</v>
+        <v>0.02226333197971122</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>85</v>
+      </c>
+      <c r="J55" t="n">
+        <v>186</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1864070247.744472</v>
+        <v>1240499119.982504</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1202774730245438</v>
+        <v>0.1169263606663294</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04987848567983684</v>
+        <v>0.03753675538519581</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3468612734.552043</v>
+        <v>4026505979.727227</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1727363609736787</v>
+        <v>0.1739913356444153</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01693800274753302</v>
+        <v>0.02149434583346302</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>75</v>
+      </c>
+      <c r="J57" t="n">
+        <v>189</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1911064426.495179</v>
+        <v>1463598164.435425</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1492941005167877</v>
+        <v>0.1621900846108448</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02929730890082336</v>
+        <v>0.03345294828466258</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5211333046.77482</v>
+        <v>4708590412.96788</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1288388641856222</v>
+        <v>0.1127274540312405</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03257263034691645</v>
+        <v>0.03132700447400003</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>91</v>
+      </c>
+      <c r="J59" t="n">
+        <v>188</v>
+      </c>
+      <c r="K59" t="n">
+        <v>115.2417045489184</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3470422859.903404</v>
+        <v>3720766376.352704</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1723841964626802</v>
+        <v>0.1528164892458518</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0321908864345194</v>
+        <v>0.02253599765568758</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2582,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3059240278.878849</v>
+        <v>2990036359.138931</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1197350504072293</v>
+        <v>0.1112539392539302</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02412253725959387</v>
+        <v>0.02977322874018431</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="n">
+        <v>79.61005331944091</v>
       </c>
     </row>
     <row r="62">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1503111936.149465</v>
+        <v>1439685183.02076</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1381569228061333</v>
+        <v>0.119608616096576</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03414817508943484</v>
+        <v>0.03526174348755753</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3680318891.747808</v>
+        <v>4916756745.490803</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09458731396188987</v>
+        <v>0.09780892106375065</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04740836028346893</v>
+        <v>0.04708859989142183</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>93</v>
+      </c>
+      <c r="J63" t="n">
+        <v>188</v>
+      </c>
+      <c r="K63" t="n">
+        <v>116.3580891470922</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4268898959.289037</v>
+        <v>5319783509.151155</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1590059465550454</v>
+        <v>0.1509150110718717</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02182840332972708</v>
+        <v>0.03033595512554101</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>93</v>
+      </c>
+      <c r="J64" t="n">
+        <v>188</v>
+      </c>
+      <c r="K64" t="n">
+        <v>118.2718755375475</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5575464245.834664</v>
+        <v>4674365879.529596</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1597267978656541</v>
+        <v>0.1396047759910673</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02181301774888598</v>
+        <v>0.0259661345466608</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>153</v>
+      </c>
+      <c r="J65" t="n">
+        <v>189</v>
+      </c>
+      <c r="K65" t="n">
+        <v>126.0395912122671</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4204993326.754854</v>
+        <v>5081879338.899923</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1566651097710015</v>
+        <v>0.1166480712336248</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03240246966402715</v>
+        <v>0.04191247206992338</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>93</v>
+      </c>
+      <c r="J66" t="n">
+        <v>188</v>
+      </c>
+      <c r="K66" t="n">
+        <v>113.048267982077</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2808,25 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3246772542.510722</v>
+        <v>2786638939.716671</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08695652145077337</v>
+        <v>0.08340390821845003</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03665913778853472</v>
+        <v>0.04605500375951772</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65.90761175593759</v>
       </c>
     </row>
     <row r="68">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5303155652.85812</v>
+        <v>4493647428.869272</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1114353306466966</v>
+        <v>0.1497458750672465</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0490339410391613</v>
+        <v>0.04632287400797049</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>95</v>
+      </c>
+      <c r="J68" t="n">
+        <v>189</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2880,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1749048251.43303</v>
+        <v>2280219958.163614</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1676841688707866</v>
+        <v>0.1395465522667138</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05131729712926642</v>
+        <v>0.0443170707824096</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2915,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2856152654.215546</v>
+        <v>2559881987.002277</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08223217766933817</v>
+        <v>0.0627374421869028</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04425011925341329</v>
+        <v>0.04907101450388534</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>185</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3913507484.386561</v>
+        <v>4474115167.306586</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1724848501748598</v>
+        <v>0.1459531198788545</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02679201542578855</v>
+        <v>0.02679771082240949</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>146</v>
+      </c>
+      <c r="J71" t="n">
+        <v>189</v>
+      </c>
+      <c r="K71" t="n">
+        <v>125.5492655571006</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1454510812.466659</v>
+        <v>1376874967.806677</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07698411484771875</v>
+        <v>0.1037068059772855</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04924600150796456</v>
+        <v>0.04297729554143108</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3032615946.770442</v>
+        <v>2944114380.58231</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09752975800603995</v>
+        <v>0.07879872118818552</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04094713868383464</v>
+        <v>0.04543559121941004</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3412872395.566174</v>
+        <v>3920925875.862491</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1405642431561859</v>
+        <v>0.1593322427789688</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0324864982342962</v>
+        <v>0.02536554345018955</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>54</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1660597843.210835</v>
+        <v>2420809362.42118</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1494336894637616</v>
+        <v>0.1080927023644773</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02637103686462158</v>
+        <v>0.0291351476560173</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4045305510.595121</v>
+        <v>3239819258.234881</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08159591592304213</v>
+        <v>0.1235749602726944</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02124018568618197</v>
+        <v>0.02887411540185371</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>86</v>
+      </c>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3162,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1482664435.400797</v>
+        <v>1683757523.565846</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1441087077005987</v>
+        <v>0.1456027520781021</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02024642420800819</v>
+        <v>0.02654994114762196</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4380443671.845364</v>
+        <v>3362272322.741328</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1158146373292085</v>
+        <v>0.117114305540546</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04643328734166907</v>
+        <v>0.05155638468556376</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>96</v>
+      </c>
+      <c r="J78" t="n">
+        <v>189</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1682144668.536041</v>
+        <v>1286688783.660369</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1557019190520912</v>
+        <v>0.1436018802957355</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03491972373606936</v>
+        <v>0.02623667514927731</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4583100748.952565</v>
+        <v>4482040653.13744</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08177470142959856</v>
+        <v>0.1065485677186681</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03425915906144845</v>
+        <v>0.0333662678141582</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>92</v>
+      </c>
+      <c r="J80" t="n">
+        <v>189</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4247497284.242949</v>
+        <v>3395429841.595798</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1027415143418218</v>
+        <v>0.1274315773730883</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03206445801106904</v>
+        <v>0.03172989751294891</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>86</v>
+      </c>
+      <c r="J81" t="n">
+        <v>189</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4654420966.32387</v>
+        <v>3737606407.024867</v>
       </c>
       <c r="F82" t="n">
-        <v>0.202343496347565</v>
+        <v>0.2122243763592658</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02860603483878579</v>
+        <v>0.02827666705477753</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>140</v>
+      </c>
+      <c r="J82" t="n">
+        <v>188</v>
+      </c>
+      <c r="K82" t="n">
+        <v>119.041648580534</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2291162596.158965</v>
+        <v>2110774171.265361</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09886444178601397</v>
+        <v>0.1222251246133891</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03932239025088468</v>
+        <v>0.04370602076024157</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2358732483.965338</v>
+        <v>2083083582.640665</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07794083648838229</v>
+        <v>0.0943040099283811</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04782346307234351</v>
+        <v>0.04656856206580839</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3288609510.065992</v>
+        <v>2797924988.811991</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1388646845667134</v>
+        <v>0.1624188372177866</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04045896805734896</v>
+        <v>0.05607542679086061</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2001671995.892548</v>
+        <v>1988338667.550084</v>
       </c>
       <c r="F86" t="n">
-        <v>0.168509061030253</v>
+        <v>0.172612856336432</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01959946065998902</v>
+        <v>0.02029021291535969</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1490731171.817036</v>
+        <v>1103618390.56514</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1868732989739128</v>
+        <v>0.1454340338503453</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0340492549027395</v>
+        <v>0.03497598991526396</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3043113890.194874</v>
+        <v>2496795360.209382</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1608521666406857</v>
+        <v>0.1307535428751206</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02502621832515117</v>
+        <v>0.0280877661815039</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3058324333.238733</v>
+        <v>3016027710.423529</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1033904011031423</v>
+        <v>0.1199115294548996</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03883602655427454</v>
+        <v>0.03360440719693863</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1494245861.613794</v>
+        <v>1964366721.265671</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09334683025414277</v>
+        <v>0.1050716419861703</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03570369976631514</v>
+        <v>0.05114435623453052</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1756693278.359868</v>
+        <v>1919398790.992228</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1462325948962959</v>
+        <v>0.1802101445709228</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05883944433402102</v>
+        <v>0.05177096313558252</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2608871050.880219</v>
+        <v>2572293918.552516</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08482843638064319</v>
+        <v>0.0815204660226293</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03435453013277244</v>
+        <v>0.04146845570779817</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4133795900.304179</v>
+        <v>4797930678.75907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1422886270101313</v>
+        <v>0.1420222407050717</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03415359966208482</v>
+        <v>0.04396753785065052</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>85</v>
+      </c>
+      <c r="J93" t="n">
+        <v>188</v>
+      </c>
+      <c r="K93" t="n">
+        <v>118.9071677769159</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2155782444.366856</v>
+        <v>2065217178.460552</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1288191531206592</v>
+        <v>0.1056995759236281</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03351445154646195</v>
+        <v>0.03645342502758352</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2973568002.552616</v>
+        <v>2001150861.211783</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1065278301523295</v>
+        <v>0.1228286726711996</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03873875092034198</v>
+        <v>0.0335337855871488</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2075327798.677307</v>
+        <v>2312559471.489152</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1223033287186485</v>
+        <v>0.139704842984046</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04166875265823303</v>
+        <v>0.04352020116958927</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3290064685.37378</v>
+        <v>4805426631.776408</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1352395737841163</v>
+        <v>0.1105621353823039</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01948428683322046</v>
+        <v>0.01761087167178494</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>91</v>
+      </c>
+      <c r="J97" t="n">
+        <v>189</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3850432577.468554</v>
+        <v>2613514878.829305</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1136252378017238</v>
+        <v>0.1101503844689736</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02962253802525763</v>
+        <v>0.02403959796279921</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>185</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2825910860.630661</v>
+        <v>2824156690.384968</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1323797900078166</v>
+        <v>0.1382878169984516</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03270261349429604</v>
+        <v>0.02908529203863369</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4223939921.206898</v>
+        <v>4647703644.249096</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1633806087865227</v>
+        <v>0.160734987138491</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02371280055512498</v>
+        <v>0.01968940830126797</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>78</v>
+      </c>
+      <c r="J100" t="n">
+        <v>189</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3192386335.298837</v>
+        <v>2834021117.474416</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1726252069294904</v>
+        <v>0.1562567982515679</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04966554190186231</v>
+        <v>0.04651891856261936</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
